--- a/exampleProblems/santonin/santonin.xlsx
+++ b/exampleProblems/santonin/santonin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/santonin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_7D7DD509B6F3DBD047483DB218DA40BABC22300A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C23BFC2-FFBB-1248-AC39-8B79DDC1BE17}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_7D7DD509B6F3DBD047483DB218DA40BABC22300A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F934C8B-92C9-6944-87B6-6D4B32A27E0C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24440" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24440" windowHeight="16360" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="HSQC" sheetId="4" r:id="rId3"/>
     <sheet name="COSY" sheetId="5" r:id="rId4"/>
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
-    <sheet name="C13_1D" sheetId="2" r:id="rId7"/>
-    <sheet name="H1_pureshift" sheetId="3" r:id="rId8"/>
-    <sheet name="NOESY" sheetId="11" r:id="rId9"/>
+    <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
+    <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -407,6 +406,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3461,22 +3464,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection sqref="A1:I16"/>
     </sheetView>
   </sheetViews>
@@ -3923,7 +3914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -4265,11 +4256,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D85F0F-3FAC-4742-A1F2-3C9D171A60B6}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -4314,6 +4305,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -4530,15 +4530,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4546,6 +4537,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4564,27 +4563,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>